--- a/Liquid Vision Plumbing/35355/zres_siteapp_NEW.xlsx
+++ b/Liquid Vision Plumbing/35355/zres_siteapp_NEW.xlsx
@@ -1,26 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\William\Desktop\CONQA\_Git\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\William\Desktop\CONQA\_Git\CONQA\Liquid Vision Plumbing\35355\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F7F9BBF-5727-4518-952D-1A40DA7B2B26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D938D77E-81D5-413F-976E-CA451A874D0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1380" yWindow="330" windowWidth="28890" windowHeight="19710" xr2:uid="{484357A6-E8EE-4CFD-B5D3-FC42F38F2F05}"/>
+    <workbookView xWindow="4455" yWindow="1290" windowWidth="28890" windowHeight="18450" xr2:uid="{484357A6-E8EE-4CFD-B5D3-FC42F38F2F05}"/>
   </bookViews>
   <sheets>
     <sheet name="zres_siteapp_NEW" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">zres_siteapp_NEW!$A$1:$G$83</definedName>
+  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="65">
   <si>
     <t>Id</t>
   </si>
@@ -41,13 +44,187 @@
   </si>
   <si>
     <t>Postfix</t>
+  </si>
+  <si>
+    <t>checkpoint</t>
+  </si>
+  <si>
+    <t>f271777b-156f-49c9-b316-21c51f03a6f5</t>
+  </si>
+  <si>
+    <t>checklist</t>
+  </si>
+  <si>
+    <t>DDA Fit Off</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>2d80b8d5-edc9-5d5e-bd59-0f9b4c430f9e</t>
+  </si>
+  <si>
+    <t>section</t>
+  </si>
+  <si>
+    <t>BASIN</t>
+  </si>
+  <si>
+    <t>566e0555-5bdb-5d70-9834-b420badbc960</t>
+  </si>
+  <si>
+    <t>STONE</t>
+  </si>
+  <si>
+    <t>e99dd58f-0b16-4f19-8530-ba985477738b</t>
+  </si>
+  <si>
+    <t>d2de63cc-ac2c-57db-84b5-16577cdf338c</t>
+  </si>
+  <si>
+    <t>MIXER</t>
+  </si>
+  <si>
+    <t>4226ea71-65fd-5249-a493-01aa55ab6986</t>
+  </si>
+  <si>
+    <t>WC</t>
+  </si>
+  <si>
+    <t>b4370e6d-c1ad-5370-a504-2486b6a4919c</t>
+  </si>
+  <si>
+    <t>TILE</t>
+  </si>
+  <si>
+    <t>74edc4e9-4bdb-5cf7-98d1-e0f23270f40c</t>
+  </si>
+  <si>
+    <t>GROUT</t>
+  </si>
+  <si>
+    <t>9896ea7f-cce3-44a6-8d05-1ae3c1f261ea</t>
+  </si>
+  <si>
+    <t>52740aa3-1a34-52d5-90fa-79bf7f33ee3e</t>
+  </si>
+  <si>
+    <t>SHOWER</t>
+  </si>
+  <si>
+    <t>0bf6a701-ec27-4aaa-b4f1-489e3d8ae1f9</t>
+  </si>
+  <si>
+    <t>0de77344-a29b-4127-985d-a9ad01ed9d75</t>
+  </si>
+  <si>
+    <t>5c423304-489a-501c-bd8e-22c908e93594</t>
+  </si>
+  <si>
+    <t>RAIL</t>
+  </si>
+  <si>
+    <t>329203e8-a106-5462-b3a8-09739a72eed3</t>
+  </si>
+  <si>
+    <t>FEMALE AMENITIES Fit Off</t>
+  </si>
+  <si>
+    <t>2cb38d10-e2a3-44e5-a880-fa1ebffae64d</t>
+  </si>
+  <si>
+    <t>a32e954d-8391-4c1d-ba34-3021cb9696b8</t>
+  </si>
+  <si>
+    <t>6387de2d-109c-48ee-ac6d-c080a8143b35</t>
+  </si>
+  <si>
+    <t>67b65833-a2b2-422a-ac3f-fb5d4efbfb6b</t>
+  </si>
+  <si>
+    <t>3a5654b6-f975-5fe6-bfbe-484e4e5c3e45</t>
+  </si>
+  <si>
+    <t>MALE AMENITIES Fit Off</t>
+  </si>
+  <si>
+    <t>b10f9956-c0b5-4160-a476-001d1e96e6ac</t>
+  </si>
+  <si>
+    <t>e1cf4c36-2365-4ca9-b5fa-5006d026519f</t>
+  </si>
+  <si>
+    <t>738ba43b-b424-4185-953c-2bc6082b2dea</t>
+  </si>
+  <si>
+    <t>b547d9c0-067f-4402-9649-241dbcc3ae39</t>
+  </si>
+  <si>
+    <t>527802fd-68a1-5a0e-8af8-2cbea995b91e</t>
+  </si>
+  <si>
+    <t>URINAL</t>
+  </si>
+  <si>
+    <t>9bcd3448-5c60-4a5b-893e-cd41b7a8d2f1</t>
+  </si>
+  <si>
+    <t>BATHROOM 1 &amp; 2 Fit Off</t>
+  </si>
+  <si>
+    <t>68005963-ec10-476d-adac-b0b8863bdca1</t>
+  </si>
+  <si>
+    <t>c718a8a3-819c-44eb-a785-494bba1e3c94</t>
+  </si>
+  <si>
+    <t>910e5e53-b9a8-44ce-b126-6bd3583beb54</t>
+  </si>
+  <si>
+    <t>a9fe48b6-3d63-4939-ad04-c3ee1b694704</t>
+  </si>
+  <si>
+    <t>882fce91-6085-551f-ab0f-938bb40c2d12</t>
+  </si>
+  <si>
+    <t>BATH</t>
+  </si>
+  <si>
+    <t>fd53bbbc-c1a8-5c54-ab6d-bcd325623d47</t>
+  </si>
+  <si>
+    <t>ENSUITE Fit Off</t>
+  </si>
+  <si>
+    <t>05a4649c-4a06-46cd-8c22-25cbfef240d5</t>
+  </si>
+  <si>
+    <t>6a196216-0d8c-4301-aad5-29a5e500c496</t>
+  </si>
+  <si>
+    <t>0c763377-6df3-4e68-938f-8af7979767ca</t>
+  </si>
+  <si>
+    <t>7648966d-d459-4d81-a013-8226bc56be60</t>
+  </si>
+  <si>
+    <t>10f4367b-4224-5775-863d-2daba5239603</t>
+  </si>
+  <si>
+    <t>POWDER ROOM Fit Off</t>
+  </si>
+  <si>
+    <t>9936bf4e-643e-4d50-8161-bc51dced830a</t>
+  </si>
+  <si>
+    <t>d8aec89a-3ab2-4a56-9eb9-662cc3821a79</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -182,8 +359,18 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="6"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="6"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="33">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -361,6 +548,17 @@
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5D5E3"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -524,8 +722,13 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -901,18 +1104,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FC82424-48FB-42A9-BBD7-D5F7213BFFEF}">
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:G83"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="9.140625" customWidth="1"/>
-    <col min="3" max="3" width="159" customWidth="1"/>
-    <col min="4" max="4" width="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="60.85546875" customWidth="1"/>
-    <col min="6" max="6" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.7109375" customWidth="1"/>
+    <col min="1" max="1" width="30.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -938,7 +1144,943 @@
         <v>5</v>
       </c>
     </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B19" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>7</v>
+      </c>
+      <c r="C20" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B22" t="s">
+        <v>7</v>
+      </c>
+      <c r="C22" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>7</v>
+      </c>
+      <c r="C23" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B24" t="s">
+        <v>7</v>
+      </c>
+      <c r="C24" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B26" t="s">
+        <v>7</v>
+      </c>
+      <c r="C26" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B27" t="s">
+        <v>7</v>
+      </c>
+      <c r="C27" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B28" t="s">
+        <v>7</v>
+      </c>
+      <c r="C28" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="3"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="F30" s="5"/>
+      <c r="G30" s="5"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B32" t="s">
+        <v>7</v>
+      </c>
+      <c r="C32" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B33" t="s">
+        <v>7</v>
+      </c>
+      <c r="C33" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B34" t="s">
+        <v>7</v>
+      </c>
+      <c r="C34" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B36" t="s">
+        <v>7</v>
+      </c>
+      <c r="C36" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B37" t="s">
+        <v>7</v>
+      </c>
+      <c r="C37" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B38" t="s">
+        <v>7</v>
+      </c>
+      <c r="C38" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B40" t="s">
+        <v>7</v>
+      </c>
+      <c r="C40" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B41" t="s">
+        <v>7</v>
+      </c>
+      <c r="C41" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B42" t="s">
+        <v>7</v>
+      </c>
+      <c r="C42" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B43" t="s">
+        <v>7</v>
+      </c>
+      <c r="C43" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D45" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E45" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="F45" s="5"/>
+      <c r="G45" s="5"/>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D46" s="2"/>
+      <c r="E46" s="2"/>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B47" t="s">
+        <v>7</v>
+      </c>
+      <c r="C47" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B48" t="s">
+        <v>7</v>
+      </c>
+      <c r="C48" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B49" t="s">
+        <v>7</v>
+      </c>
+      <c r="C49" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D50" s="2"/>
+      <c r="E50" s="2"/>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B51" t="s">
+        <v>7</v>
+      </c>
+      <c r="C51" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B52" t="s">
+        <v>7</v>
+      </c>
+      <c r="C52" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B53" t="s">
+        <v>7</v>
+      </c>
+      <c r="C53" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D54" s="2"/>
+      <c r="E54" s="2"/>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B55" t="s">
+        <v>7</v>
+      </c>
+      <c r="C55" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B56" t="s">
+        <v>7</v>
+      </c>
+      <c r="C56" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B57" t="s">
+        <v>7</v>
+      </c>
+      <c r="C57" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B58" t="s">
+        <v>7</v>
+      </c>
+      <c r="C58" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A59" s="3"/>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A60" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B60" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C60" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="D60" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E60" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="F60" s="5"/>
+      <c r="G60" s="5"/>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A61" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D61" s="2"/>
+      <c r="E61" s="2"/>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A62" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B62" t="s">
+        <v>7</v>
+      </c>
+      <c r="C62" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A63" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B63" t="s">
+        <v>7</v>
+      </c>
+      <c r="C63" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A64" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B64" t="s">
+        <v>7</v>
+      </c>
+      <c r="C64" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A65" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D65" s="2"/>
+      <c r="E65" s="2"/>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A66" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B66" t="s">
+        <v>7</v>
+      </c>
+      <c r="C66" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A67" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B67" t="s">
+        <v>7</v>
+      </c>
+      <c r="C67" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A68" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B68" t="s">
+        <v>7</v>
+      </c>
+      <c r="C68" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A69" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D69" s="2"/>
+      <c r="E69" s="2"/>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A70" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B70" t="s">
+        <v>7</v>
+      </c>
+      <c r="C70" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A71" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B71" t="s">
+        <v>7</v>
+      </c>
+      <c r="C71" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A72" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B72" t="s">
+        <v>7</v>
+      </c>
+      <c r="C72" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A73" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B73" t="s">
+        <v>7</v>
+      </c>
+      <c r="C73" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A75" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B75" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C75" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="D75" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E75" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="F75" s="5"/>
+      <c r="G75" s="5"/>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A76" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D76" s="2"/>
+      <c r="E76" s="2"/>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A77" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B77" t="s">
+        <v>7</v>
+      </c>
+      <c r="C77" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A78" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B78" t="s">
+        <v>7</v>
+      </c>
+      <c r="C78" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A79" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B79" t="s">
+        <v>7</v>
+      </c>
+      <c r="C79" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A80" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D80" s="2"/>
+      <c r="E80" s="2"/>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B81" t="s">
+        <v>7</v>
+      </c>
+      <c r="C81" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B82" t="s">
+        <v>7</v>
+      </c>
+      <c r="C82" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B83" t="s">
+        <v>7</v>
+      </c>
+      <c r="C83" t="s">
+        <v>21</v>
+      </c>
+    </row>
   </sheetData>
+  <autoFilter ref="A1:G83" xr:uid="{2FC82424-48FB-42A9-BBD7-D5F7213BFFEF}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>